--- a/duong_cheo.xlsx
+++ b/duong_cheo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cungbac/Documents/Learning/9. Python/BigO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8749ADF7-1112-EB4E-A154-F1048352DA00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661977A1-10F9-8740-A558-EC6A3928A97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{6C89C4EE-6041-CA45-B80E-12705AE015FD}"/>
+    <workbookView xWindow="8220" yWindow="1620" windowWidth="28040" windowHeight="17440" xr2:uid="{6C89C4EE-6041-CA45-B80E-12705AE015FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <definedName name="test_1" localSheetId="0">Sheet1!$L$5:$S$12</definedName>
     <definedName name="test_2" localSheetId="0">Sheet1!$U$5:$AB$12</definedName>
     <definedName name="test_3" localSheetId="0">Sheet1!$AD$5:$AK$12</definedName>
+    <definedName name="test_4" localSheetId="0">Sheet1!$AD$14:$AK$21</definedName>
+    <definedName name="test_5" localSheetId="0">Sheet1!$U$14:$AB$21</definedName>
+    <definedName name="test_6" localSheetId="0">Sheet1!$L$14:$S$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +45,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{F9FACFCA-237B-CF40-89D1-AED16C8FA74D}" name="test" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/cungbac/Documents/Learning/9. Python/BigO/test.txt" space="1" consecutive="1">
+    <textPr sourceFile="/Users/cungbac/Documents/Learning/9. Python/BigO/test.txt" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -56,7 +59,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{EDD884D6-D12C-0641-A360-CB8E5963DEC3}" name="test1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/cungbac/Documents/Learning/9. Python/BigO/test.txt" space="1" consecutive="1">
+    <textPr sourceFile="/Users/cungbac/Documents/Learning/9. Python/BigO/test.txt" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -70,7 +73,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{CD4377BB-6146-F247-9FB8-7170CD4726B1}" name="test11" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/cungbac/Documents/Learning/9. Python/BigO/test.txt" space="1" consecutive="1">
+    <textPr sourceFile="/Users/cungbac/Documents/Learning/9. Python/BigO/test.txt" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -84,7 +87,49 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{845775A6-2A80-0C49-8F7F-C8557C935AC4}" name="test111" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/cungbac/Documents/Learning/9. Python/BigO/test.txt" space="1" consecutive="1">
+    <textPr sourceFile="/Users/cungbac/Documents/Learning/9. Python/BigO/test.txt" space="1" consecutive="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{B634BAEA-BB01-BB4B-B71E-5D87DD5B38D7}" name="test1111" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/cungbac/Documents/Learning/9. Python/BigO/test.txt" space="1" consecutive="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" xr16:uid="{51881B21-1934-F548-A490-455B03391F18}" name="test112" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/cungbac/Documents/Learning/9. Python/BigO/test.txt" space="1" consecutive="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" xr16:uid="{35DE6609-51C5-6644-A21E-E7BCC2851F0A}" name="test12" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/cungbac/Documents/Learning/9. Python/BigO/test.txt" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -119,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,6 +176,12 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,6 +258,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -227,19 +290,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_3" connectionId="4" xr16:uid="{9F1EF1FE-D98F-D742-8B7E-D789757B3A42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_6" connectionId="7" xr16:uid="{C1E58942-5B98-1244-99D9-5839FC49BF79}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_2" connectionId="3" xr16:uid="{DF393DCC-14B1-244E-997B-E9CE21E72F05}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_5" connectionId="6" xr16:uid="{E5DA01DC-FB99-064A-A525-F838CDC1087B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="2" xr16:uid="{2DFC731F-FD5D-E44A-A4A1-7CB143C0DA5B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_4" connectionId="5" xr16:uid="{5CABC12A-C0FB-A34D-9596-FC75966679AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="1" xr16:uid="{F848BA4C-37B5-4941-B3A8-3F051CF2E007}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_3" connectionId="4" xr16:uid="{9F1EF1FE-D98F-D742-8B7E-D789757B3A42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_2" connectionId="3" xr16:uid="{DF393DCC-14B1-244E-997B-E9CE21E72F05}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="2" xr16:uid="{2DFC731F-FD5D-E44A-A4A1-7CB143C0DA5B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE22159-3F1A-8342-8619-D313D48BC09C}">
-  <dimension ref="B4:AK17"/>
+  <dimension ref="B4:AK24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1465,30 +1540,667 @@
         <v>952</v>
       </c>
     </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+    <row r="14" spans="2:37" s="7" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="L14" s="5">
+        <v>651</v>
+      </c>
+      <c r="M14" s="5">
+        <v>594</v>
+      </c>
+      <c r="N14" s="5">
+        <v>882</v>
+      </c>
+      <c r="O14" s="5">
+        <v>260</v>
+      </c>
+      <c r="P14" s="5">
+        <v>544</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>320</v>
+      </c>
+      <c r="R14" s="5">
+        <v>607</v>
+      </c>
+      <c r="S14" s="5">
+        <v>177</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="8">
+        <v>651</v>
+      </c>
+      <c r="V14" s="8">
+        <v>594</v>
+      </c>
+      <c r="W14" s="8">
+        <v>882</v>
+      </c>
+      <c r="X14" s="9">
+        <v>260</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>544</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>320</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>607</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>177</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>651</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>594</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>882</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>260</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>544</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>320</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>607</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" s="7" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>74</v>
+      </c>
+      <c r="M15" s="5">
+        <v>336</v>
+      </c>
+      <c r="N15" s="5">
+        <v>897</v>
+      </c>
+      <c r="O15" s="5">
+        <v>319</v>
+      </c>
+      <c r="P15" s="5">
+        <v>600</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>995</v>
+      </c>
+      <c r="R15" s="5">
+        <v>69</v>
+      </c>
+      <c r="S15" s="5">
+        <v>848</v>
+      </c>
+      <c r="T15" s="7">
+        <v>1</v>
+      </c>
+      <c r="U15" s="8">
+        <v>74</v>
+      </c>
+      <c r="V15" s="8">
+        <v>336</v>
+      </c>
+      <c r="W15" s="8">
+        <v>897</v>
+      </c>
+      <c r="X15" s="9">
+        <v>319</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>600</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>995</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>69</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>848</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>74</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>336</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>897</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>319</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>600</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>995</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>69</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>848</v>
+      </c>
     </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="E16" s="1" t="s">
+    <row r="16" spans="2:37" s="7" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="7">
         <v>5</v>
       </c>
+      <c r="K16" s="7">
+        <v>2</v>
+      </c>
+      <c r="L16" s="5">
+        <v>856</v>
+      </c>
+      <c r="M16" s="5">
+        <v>841</v>
+      </c>
+      <c r="N16" s="5">
+        <v>647</v>
+      </c>
+      <c r="O16" s="5">
+        <v>423</v>
+      </c>
+      <c r="P16" s="5">
+        <v>555</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>113</v>
+      </c>
+      <c r="R16" s="5">
+        <v>96</v>
+      </c>
+      <c r="S16" s="5">
+        <v>554</v>
+      </c>
+      <c r="T16" s="7">
+        <v>2</v>
+      </c>
+      <c r="U16" s="10">
+        <v>856</v>
+      </c>
+      <c r="V16" s="8">
+        <v>841</v>
+      </c>
+      <c r="W16" s="8">
+        <v>647</v>
+      </c>
+      <c r="X16" s="9">
+        <v>423</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>555</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>113</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>96</v>
+      </c>
+      <c r="AB16" s="8">
+        <v>554</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>856</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>841</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>647</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>423</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>555</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>113</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>96</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>554</v>
+      </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="1" t="s">
+    <row r="17" spans="5:37" s="7" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="K17" s="7">
+        <v>3</v>
+      </c>
+      <c r="L17" s="5">
+        <v>678</v>
+      </c>
+      <c r="M17" s="5">
+        <v>120</v>
+      </c>
+      <c r="N17" s="5">
+        <v>801</v>
+      </c>
+      <c r="O17" s="5">
+        <v>694</v>
+      </c>
+      <c r="P17" s="5">
+        <v>267</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>356</v>
+      </c>
+      <c r="R17" s="5">
+        <v>351</v>
+      </c>
+      <c r="S17" s="5">
+        <v>405</v>
+      </c>
+      <c r="T17" s="7">
+        <v>3</v>
+      </c>
+      <c r="U17" s="8">
+        <v>678</v>
+      </c>
+      <c r="V17" s="10">
+        <v>120</v>
+      </c>
+      <c r="W17" s="8">
+        <v>801</v>
+      </c>
+      <c r="X17" s="9">
+        <v>694</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>267</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>356</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>351</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>405</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>678</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>120</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>801</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>694</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>267</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>356</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>351</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>405</v>
+      </c>
     </row>
+    <row r="18" spans="5:37" s="7" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="7">
+        <v>4</v>
+      </c>
+      <c r="L18" s="5">
+        <v>519</v>
+      </c>
+      <c r="M18" s="5">
+        <v>841</v>
+      </c>
+      <c r="N18" s="5">
+        <v>455</v>
+      </c>
+      <c r="O18" s="5">
+        <v>996</v>
+      </c>
+      <c r="P18" s="5">
+        <v>85</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>331</v>
+      </c>
+      <c r="R18" s="5">
+        <v>348</v>
+      </c>
+      <c r="S18" s="5">
+        <v>744</v>
+      </c>
+      <c r="T18" s="7">
+        <v>4</v>
+      </c>
+      <c r="U18" s="8">
+        <v>519</v>
+      </c>
+      <c r="V18" s="8">
+        <v>841</v>
+      </c>
+      <c r="W18" s="10">
+        <v>455</v>
+      </c>
+      <c r="X18" s="9">
+        <v>996</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>85</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>331</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>348</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>744</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>519</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>841</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>455</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>996</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>85</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>331</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>348</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="19" spans="5:37" s="7" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="7">
+        <v>5</v>
+      </c>
+      <c r="L19" s="5">
+        <v>451</v>
+      </c>
+      <c r="M19" s="5">
+        <v>30</v>
+      </c>
+      <c r="N19" s="5">
+        <v>47</v>
+      </c>
+      <c r="O19" s="5">
+        <v>34</v>
+      </c>
+      <c r="P19" s="5">
+        <v>844</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>131</v>
+      </c>
+      <c r="R19" s="5">
+        <v>575</v>
+      </c>
+      <c r="S19" s="5">
+        <v>951</v>
+      </c>
+      <c r="T19" s="7">
+        <v>5</v>
+      </c>
+      <c r="U19" s="9">
+        <v>451</v>
+      </c>
+      <c r="V19" s="9">
+        <v>30</v>
+      </c>
+      <c r="W19" s="9">
+        <v>47</v>
+      </c>
+      <c r="X19" s="10">
+        <v>34</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>844</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>131</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>575</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>951</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>451</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>47</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>34</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>844</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>131</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>575</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="20" spans="5:37" s="7" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="7">
+        <v>6</v>
+      </c>
+      <c r="L20" s="5">
+        <v>454</v>
+      </c>
+      <c r="M20" s="5">
+        <v>547</v>
+      </c>
+      <c r="N20" s="5">
+        <v>593</v>
+      </c>
+      <c r="O20" s="5">
+        <v>941</v>
+      </c>
+      <c r="P20" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>888</v>
+      </c>
+      <c r="R20" s="5">
+        <v>385</v>
+      </c>
+      <c r="S20" s="5">
+        <v>883</v>
+      </c>
+      <c r="T20" s="7">
+        <v>6</v>
+      </c>
+      <c r="U20" s="8">
+        <v>454</v>
+      </c>
+      <c r="V20" s="8">
+        <v>547</v>
+      </c>
+      <c r="W20" s="10">
+        <v>593</v>
+      </c>
+      <c r="X20" s="9">
+        <v>941</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>500</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>888</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>385</v>
+      </c>
+      <c r="AB20" s="8">
+        <v>883</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>454</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>547</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>593</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>941</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>500</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>888</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>385</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="21" spans="5:37" s="7" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="7">
+        <v>7</v>
+      </c>
+      <c r="L21" s="5">
+        <v>166</v>
+      </c>
+      <c r="M21" s="5">
+        <v>442</v>
+      </c>
+      <c r="N21" s="5">
+        <v>954</v>
+      </c>
+      <c r="O21" s="5">
+        <v>273</v>
+      </c>
+      <c r="P21" s="5">
+        <v>928</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>304</v>
+      </c>
+      <c r="R21" s="5">
+        <v>242</v>
+      </c>
+      <c r="S21" s="5">
+        <v>952</v>
+      </c>
+      <c r="T21" s="7">
+        <v>7</v>
+      </c>
+      <c r="U21" s="8">
+        <v>166</v>
+      </c>
+      <c r="V21" s="10">
+        <v>442</v>
+      </c>
+      <c r="W21" s="8">
+        <v>954</v>
+      </c>
+      <c r="X21" s="9">
+        <v>273</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>928</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>304</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>242</v>
+      </c>
+      <c r="AB21" s="8">
+        <v>952</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>166</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>442</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>954</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>273</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>928</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>304</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>242</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="22" spans="5:37" s="7" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="5:37" s="7" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="5:37" s="7" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
